--- a/接口文档/订单api/订单api-app端.xlsx
+++ b/接口文档/订单api/订单api-app端.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050" activeTab="6"/>
+    <workbookView windowWidth="28695" windowHeight="13050" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="封面" sheetId="1" r:id="rId1"/>
     <sheet name="目录" sheetId="2" r:id="rId2"/>
     <sheet name="订单列表(按状态，除待支付状态)" sheetId="3" r:id="rId3"/>
-    <sheet name="待支付订单列表(已废弃)" sheetId="4" r:id="rId4"/>
+    <sheet name="待支付订单列表" sheetId="4" r:id="rId4"/>
     <sheet name="订单详情接口(除待支付状态订单)" sheetId="5" r:id="rId5"/>
     <sheet name="订单详情接口(待支付订单详情)" sheetId="6" r:id="rId6"/>
     <sheet name="修改订单状态" sheetId="7" r:id="rId7"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296">
   <si>
     <t>订单接口（APP端）
 版本：1.0
@@ -503,7 +503,13 @@
     <t>}</t>
   </si>
   <si>
-    <t>http://192.168.1.131/api/order/v1/waitPayOrderList?page=1&amp;size=5</t>
+    <t>http://192.168.1.131/api/order/v1/waitPayOrderList?outTradeNos=2100020161109210435077,2100020161109210418097</t>
+  </si>
+  <si>
+    <t>outTradeNos</t>
+  </si>
+  <si>
+    <t>交易流水号，用逗号隔开</t>
   </si>
   <si>
     <t xml:space="preserve">    "msg": "订单列表查询成功",</t>
@@ -1004,9 +1010,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
@@ -1065,7 +1071,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1079,16 +1093,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1102,22 +1115,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1125,39 +1131,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1179,6 +1153,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -1186,9 +1176,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1198,20 +1218,6 @@
       <color theme="1"/>
       <name val="Tahoma"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
@@ -1229,7 +1235,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1241,7 +1391,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1253,157 +1409,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1537,6 +1543,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1548,45 +1569,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1620,17 +1602,41 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1642,10 +1648,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1654,136 +1660,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -1846,14 +1852,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2576,7 +2582,7 @@
     </row>
     <row r="6" ht="16.5" spans="1:7">
       <c r="A6" s="10"/>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="22" t="s">
         <v>22</v>
       </c>
       <c r="C6" s="11" t="s">
@@ -2588,12 +2594,12 @@
       <c r="E6" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="21"/>
+      <c r="F6" s="20"/>
       <c r="G6" s="17"/>
     </row>
     <row r="7" ht="16.5" spans="1:7">
       <c r="A7" s="10"/>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="22" t="s">
         <v>24</v>
       </c>
       <c r="C7" s="23" t="s">
@@ -2605,7 +2611,7 @@
       <c r="E7" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="21" t="s">
+      <c r="F7" s="20" t="s">
         <v>26</v>
       </c>
       <c r="G7" s="17"/>
@@ -2620,7 +2626,7 @@
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
       <c r="E8" s="14"/>
-      <c r="F8" s="21" t="s">
+      <c r="F8" s="20" t="s">
         <v>29</v>
       </c>
       <c r="G8" s="17"/>
@@ -2637,7 +2643,7 @@
       <c r="E9" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="21" t="s">
+      <c r="F9" s="20" t="s">
         <v>31</v>
       </c>
       <c r="G9" s="17"/>
@@ -2654,7 +2660,7 @@
       <c r="E10" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="21" t="s">
+      <c r="F10" s="20" t="s">
         <v>34</v>
       </c>
       <c r="G10" s="17"/>
@@ -2667,7 +2673,7 @@
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
       <c r="E11" s="14"/>
-      <c r="F11" s="21" t="s">
+      <c r="F11" s="20" t="s">
         <v>36</v>
       </c>
       <c r="G11" s="17"/>
@@ -2680,7 +2686,7 @@
       <c r="C12" s="16"/>
       <c r="D12" s="16"/>
       <c r="E12" s="11"/>
-      <c r="F12" s="22"/>
+      <c r="F12" s="21"/>
       <c r="G12" s="17"/>
     </row>
     <row r="13" ht="16.5" spans="1:7">
@@ -2691,7 +2697,7 @@
       <c r="C13" s="16"/>
       <c r="D13" s="16"/>
       <c r="E13" s="15"/>
-      <c r="F13" s="22"/>
+      <c r="F13" s="21"/>
       <c r="G13" s="17"/>
     </row>
     <row r="14" ht="16.5" spans="1:7">
@@ -4066,7 +4072,7 @@
   <sheetPr/>
   <dimension ref="A1:G206"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
@@ -4075,7 +4081,7 @@
     <col min="1" max="2" width="23.375" customWidth="1"/>
     <col min="3" max="3" width="21.375" customWidth="1"/>
     <col min="4" max="4" width="17.25" customWidth="1"/>
-    <col min="5" max="5" width="26.5" customWidth="1"/>
+    <col min="5" max="5" width="62.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" spans="1:7">
@@ -4095,7 +4101,7 @@
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="5" t="s">
         <v>130</v>
       </c>
       <c r="C2" s="6"/>
@@ -4139,7 +4145,7 @@
     <row r="5" ht="16.5" spans="1:7">
       <c r="A5" s="10"/>
       <c r="B5" s="11" t="s">
-        <v>18</v>
+        <v>131</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>19</v>
@@ -4148,27 +4154,24 @@
         <v>20</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>21</v>
+        <v>132</v>
       </c>
       <c r="F5" s="17"/>
       <c r="G5" s="17"/>
     </row>
-    <row r="6" ht="16.5" spans="1:7">
+    <row r="6" ht="16.5" spans="1:6">
       <c r="A6" s="10"/>
-      <c r="B6" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="11" t="s">
+      <c r="B6" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="C6" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="D6" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="21"/>
-      <c r="G6" s="17"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="17"/>
     </row>
     <row r="7" ht="16.5" spans="1:7">
       <c r="A7" s="8" t="s">
@@ -4180,7 +4183,7 @@
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
       <c r="E7" s="14"/>
-      <c r="F7" s="21"/>
+      <c r="F7" s="20"/>
       <c r="G7" s="17"/>
     </row>
     <row r="8" ht="16.5" spans="1:7">
@@ -4195,7 +4198,7 @@
       <c r="E8" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="21"/>
+      <c r="F8" s="20"/>
       <c r="G8" s="17"/>
     </row>
     <row r="9" ht="16.5" spans="1:7">
@@ -4210,7 +4213,7 @@
       <c r="E9" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="21"/>
+      <c r="F9" s="20"/>
       <c r="G9" s="17"/>
     </row>
     <row r="10" ht="16.5" spans="1:7">
@@ -4221,7 +4224,7 @@
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
       <c r="E10" s="14"/>
-      <c r="F10" s="21"/>
+      <c r="F10" s="20"/>
       <c r="G10" s="17"/>
     </row>
     <row r="11" ht="16.5" spans="1:7">
@@ -4232,7 +4235,7 @@
       <c r="C11" s="16"/>
       <c r="D11" s="16"/>
       <c r="E11" s="11"/>
-      <c r="F11" s="22"/>
+      <c r="F11" s="21"/>
       <c r="G11" s="17"/>
     </row>
     <row r="12" ht="16.5" spans="1:7">
@@ -4243,22 +4246,22 @@
       <c r="C12" s="16"/>
       <c r="D12" s="16"/>
       <c r="E12" s="15"/>
-      <c r="F12" s="22"/>
+      <c r="F12" s="21"/>
       <c r="G12" s="17"/>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="16" spans="2:2">
@@ -4268,12 +4271,12 @@
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="19" spans="2:2">
@@ -4288,17 +4291,17 @@
     </row>
     <row r="21" spans="2:2">
       <c r="B21" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="24" spans="2:2">
@@ -4308,7 +4311,7 @@
     </row>
     <row r="25" spans="2:2">
       <c r="B25" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="26" spans="2:2">
@@ -4338,12 +4341,12 @@
     </row>
     <row r="31" spans="2:2">
       <c r="B31" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="33" spans="2:2">
@@ -4363,7 +4366,7 @@
     </row>
     <row r="36" spans="2:2">
       <c r="B36" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="37" spans="2:2">
@@ -4383,7 +4386,7 @@
     </row>
     <row r="40" spans="2:2">
       <c r="B40" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="41" spans="2:2">
@@ -4413,12 +4416,12 @@
     </row>
     <row r="46" spans="2:2">
       <c r="B46" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="47" spans="2:2">
       <c r="B47" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="48" spans="2:2">
@@ -4433,7 +4436,7 @@
     </row>
     <row r="50" spans="2:2">
       <c r="B50" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="51" spans="2:2">
@@ -4463,12 +4466,12 @@
     </row>
     <row r="56" spans="2:2">
       <c r="B56" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="57" spans="2:2">
       <c r="B57" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="58" spans="2:2">
@@ -4483,7 +4486,7 @@
     </row>
     <row r="60" spans="2:2">
       <c r="B60" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="61" spans="2:2">
@@ -4498,12 +4501,12 @@
     </row>
     <row r="63" spans="2:2">
       <c r="B63" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="64" spans="2:2">
       <c r="B64" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="65" spans="2:2">
@@ -4518,7 +4521,7 @@
     </row>
     <row r="67" spans="2:2">
       <c r="B67" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="68" spans="2:2">
@@ -4528,7 +4531,7 @@
     </row>
     <row r="69" spans="2:2">
       <c r="B69" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="70" spans="2:2">
@@ -4538,7 +4541,7 @@
     </row>
     <row r="71" spans="2:2">
       <c r="B71" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="72" spans="2:2">
@@ -4568,12 +4571,12 @@
     </row>
     <row r="77" spans="2:2">
       <c r="B77" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="78" spans="2:2">
       <c r="B78" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="79" spans="2:2">
@@ -4593,7 +4596,7 @@
     </row>
     <row r="82" spans="2:2">
       <c r="B82" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="83" spans="2:2">
@@ -4613,7 +4616,7 @@
     </row>
     <row r="86" spans="2:2">
       <c r="B86" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="87" spans="2:2">
@@ -4643,12 +4646,12 @@
     </row>
     <row r="92" spans="2:2">
       <c r="B92" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="93" spans="2:2">
       <c r="B93" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="94" spans="2:2">
@@ -4663,7 +4666,7 @@
     </row>
     <row r="96" spans="2:2">
       <c r="B96" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="97" spans="2:2">
@@ -4693,12 +4696,12 @@
     </row>
     <row r="102" spans="2:2">
       <c r="B102" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="103" spans="2:2">
       <c r="B103" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="104" spans="2:2">
@@ -4713,7 +4716,7 @@
     </row>
     <row r="106" spans="2:2">
       <c r="B106" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="107" spans="2:2">
@@ -4728,7 +4731,7 @@
     </row>
     <row r="109" spans="2:2">
       <c r="B109" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="110" spans="2:2">
@@ -4738,12 +4741,12 @@
     </row>
     <row r="111" spans="2:2">
       <c r="B111" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="112" spans="2:2">
       <c r="B112" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="113" spans="2:2">
@@ -4758,7 +4761,7 @@
     </row>
     <row r="115" spans="2:2">
       <c r="B115" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="116" spans="2:2">
@@ -4768,7 +4771,7 @@
     </row>
     <row r="117" spans="2:2">
       <c r="B117" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="118" spans="2:2">
@@ -4778,7 +4781,7 @@
     </row>
     <row r="119" spans="2:2">
       <c r="B119" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="120" spans="2:2">
@@ -4808,12 +4811,12 @@
     </row>
     <row r="125" spans="2:2">
       <c r="B125" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="126" spans="2:2">
       <c r="B126" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="127" spans="2:2">
@@ -4833,7 +4836,7 @@
     </row>
     <row r="130" spans="2:2">
       <c r="B130" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="131" spans="2:2">
@@ -4853,7 +4856,7 @@
     </row>
     <row r="134" spans="2:2">
       <c r="B134" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="135" spans="2:2">
@@ -4883,12 +4886,12 @@
     </row>
     <row r="140" spans="2:2">
       <c r="B140" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="141" spans="2:2">
       <c r="B141" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="142" spans="2:2">
@@ -4903,7 +4906,7 @@
     </row>
     <row r="144" spans="2:2">
       <c r="B144" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="145" spans="2:2">
@@ -4933,12 +4936,12 @@
     </row>
     <row r="150" spans="2:2">
       <c r="B150" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="151" spans="2:2">
       <c r="B151" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="152" spans="2:2">
@@ -4953,7 +4956,7 @@
     </row>
     <row r="154" spans="2:2">
       <c r="B154" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="155" spans="2:2">
@@ -4968,12 +4971,12 @@
     </row>
     <row r="157" spans="2:2">
       <c r="B157" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="158" spans="2:2">
       <c r="B158" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="159" spans="2:2">
@@ -4988,7 +4991,7 @@
     </row>
     <row r="161" spans="2:2">
       <c r="B161" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="162" spans="2:2">
@@ -4998,7 +5001,7 @@
     </row>
     <row r="163" spans="2:2">
       <c r="B163" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="164" spans="2:2">
@@ -5008,7 +5011,7 @@
     </row>
     <row r="165" spans="2:2">
       <c r="B165" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="166" spans="2:2">
@@ -5038,12 +5041,12 @@
     </row>
     <row r="171" spans="2:2">
       <c r="B171" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="172" spans="2:2">
       <c r="B172" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="173" spans="2:2">
@@ -5063,7 +5066,7 @@
     </row>
     <row r="176" spans="2:2">
       <c r="B176" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="177" spans="2:2">
@@ -5083,7 +5086,7 @@
     </row>
     <row r="180" spans="2:2">
       <c r="B180" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="181" spans="2:2">
@@ -5113,12 +5116,12 @@
     </row>
     <row r="186" spans="2:2">
       <c r="B186" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="187" spans="2:2">
       <c r="B187" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="188" spans="2:2">
@@ -5133,7 +5136,7 @@
     </row>
     <row r="190" spans="2:2">
       <c r="B190" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="191" spans="2:2">
@@ -5163,12 +5166,12 @@
     </row>
     <row r="196" spans="2:2">
       <c r="B196" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="197" spans="2:2">
       <c r="B197" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="198" spans="2:2">
@@ -5183,7 +5186,7 @@
     </row>
     <row r="200" spans="2:2">
       <c r="B200" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="201" spans="2:2">
@@ -5193,22 +5196,22 @@
     </row>
     <row r="202" spans="2:2">
       <c r="B202" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="203" spans="2:2">
       <c r="B203" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="204" spans="2:2">
       <c r="B204" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="205" spans="2:2">
       <c r="B205" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="206" spans="2:2">
@@ -5227,7 +5230,7 @@
     <mergeCell ref="A7:A12"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="http://192.168.1.131/api/order/v1/waitPayOrderList?page=1&amp;size=5" tooltip="http://192.168.1.131/api/order/v1/waitPayOrderList?page=1&amp;size=5"/>
+    <hyperlink ref="B2" r:id="rId1" display="http://192.168.1.131/api/order/v1/waitPayOrderList?outTradeNos=2100020161109210435077,2100020161109210418097" tooltip="http://192.168.1.131/api/order/v1/waitPayOrderList?outTradeNos=2100020161109210435077,2100020161109210418097"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -5257,7 +5260,7 @@
         <v>7</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
@@ -5268,7 +5271,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -5305,7 +5308,7 @@
     <row r="5" ht="16.5" spans="1:5">
       <c r="A5" s="10"/>
       <c r="B5" s="11" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>19</v>
@@ -5314,7 +5317,7 @@
         <v>20</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" ht="16.5" spans="1:5">
@@ -5383,7 +5386,7 @@
     </row>
     <row r="12" spans="2:2">
       <c r="B12" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="13" spans="2:2">
@@ -5393,112 +5396,112 @@
     </row>
     <row r="14" spans="2:2">
       <c r="B14" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="29" spans="2:2">
       <c r="B29" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="30" spans="2:2">
       <c r="B30" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="36" spans="2:2">
@@ -5508,42 +5511,42 @@
     </row>
     <row r="37" spans="2:2">
       <c r="B37" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="38" spans="2:2">
       <c r="B38" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="39" spans="2:2">
       <c r="B39" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="40" spans="2:2">
       <c r="B40" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="41" spans="2:2">
       <c r="B41" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="42" spans="2:2">
       <c r="B42" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="43" spans="2:2">
       <c r="B43" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="44" spans="2:2">
       <c r="B44" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="45" spans="2:2">
@@ -5558,7 +5561,7 @@
     </row>
     <row r="47" spans="2:2">
       <c r="B47" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="48" spans="2:2">
@@ -5568,32 +5571,32 @@
     </row>
     <row r="49" spans="2:2">
       <c r="B49" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="50" spans="2:2">
       <c r="B50" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="51" spans="2:2">
       <c r="B51" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="52" spans="2:2">
       <c r="B52" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="53" spans="2:2">
       <c r="B53" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="54" spans="2:2">
       <c r="B54" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="55" spans="2:2">
@@ -5608,7 +5611,7 @@
     </row>
     <row r="57" spans="2:2">
       <c r="B57" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="58" spans="2:2">
@@ -5662,7 +5665,7 @@
         <v>7</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
@@ -5673,7 +5676,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -5710,7 +5713,7 @@
     <row r="5" ht="16.5" spans="1:5">
       <c r="A5" s="10"/>
       <c r="B5" s="11" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>19</v>
@@ -5719,7 +5722,7 @@
         <v>20</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="6" ht="16.5" spans="1:5">
@@ -5788,477 +5791,477 @@
     </row>
     <row r="12" spans="2:2">
       <c r="B12" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="29" spans="2:2">
       <c r="B29" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="30" spans="2:2">
       <c r="B30" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="36" spans="2:2">
       <c r="B36" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="37" spans="2:2">
       <c r="B37" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="38" spans="2:2">
       <c r="B38" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="39" spans="2:2">
       <c r="B39" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="40" spans="2:2">
       <c r="B40" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="41" spans="2:2">
       <c r="B41" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="42" spans="2:2">
       <c r="B42" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="43" spans="2:2">
       <c r="B43" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="44" spans="2:2">
       <c r="B44" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="45" spans="2:2">
       <c r="B45" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="46" spans="2:2">
       <c r="B46" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="47" spans="2:2">
       <c r="B47" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="48" spans="2:2">
       <c r="B48" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="49" spans="2:2">
       <c r="B49" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="50" spans="2:2">
       <c r="B50" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="51" spans="2:2">
       <c r="B51" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="52" spans="2:2">
       <c r="B52" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="53" spans="2:2">
       <c r="B53" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="54" spans="2:2">
       <c r="B54" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="55" spans="2:2">
       <c r="B55" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="56" spans="2:2">
       <c r="B56" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="57" spans="2:2">
       <c r="B57" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="58" spans="2:2">
       <c r="B58" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="59" spans="2:2">
       <c r="B59" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="60" spans="2:2">
       <c r="B60" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="61" spans="2:2">
       <c r="B61" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="62" spans="2:2">
       <c r="B62" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="63" spans="2:2">
       <c r="B63" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="64" spans="2:2">
       <c r="B64" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="65" spans="2:2">
       <c r="B65" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="66" spans="2:2">
       <c r="B66" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="67" spans="2:2">
       <c r="B67" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="68" spans="2:2">
       <c r="B68" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="69" spans="2:2">
       <c r="B69" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="70" spans="2:2">
       <c r="B70" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="71" spans="2:2">
       <c r="B71" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="72" spans="2:2">
       <c r="B72" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="73" spans="2:2">
       <c r="B73" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="74" spans="2:2">
       <c r="B74" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="75" spans="2:2">
       <c r="B75" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="76" spans="2:2">
       <c r="B76" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="77" spans="2:2">
       <c r="B77" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="78" spans="2:2">
       <c r="B78" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="79" spans="2:2">
       <c r="B79" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="80" spans="2:2">
       <c r="B80" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="81" spans="2:2">
       <c r="B81" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="82" spans="2:2">
       <c r="B82" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="83" spans="2:2">
       <c r="B83" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="84" spans="2:2">
       <c r="B84" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="85" spans="2:2">
       <c r="B85" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="86" spans="2:2">
       <c r="B86" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="87" spans="2:2">
       <c r="B87" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="88" spans="2:2">
       <c r="B88" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="89" spans="2:2">
       <c r="B89" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="90" spans="2:2">
       <c r="B90" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="91" spans="2:2">
       <c r="B91" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="92" spans="2:2">
       <c r="B92" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="93" spans="2:2">
       <c r="B93" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="94" spans="2:2">
       <c r="B94" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="95" spans="2:2">
       <c r="B95" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="96" spans="2:2">
       <c r="B96" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="97" spans="2:2">
       <c r="B97" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="98" spans="2:2">
       <c r="B98" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="99" spans="2:2">
       <c r="B99" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="100" spans="2:2">
       <c r="B100" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="101" spans="2:2">
       <c r="B101" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="102" spans="2:2">
       <c r="B102" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="103" spans="2:2">
       <c r="B103" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="104" spans="2:2">
       <c r="B104" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="105" spans="2:2">
       <c r="B105" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="106" spans="2:2">
       <c r="B106" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="107" spans="2:2">
@@ -6289,7 +6292,7 @@
   <sheetPr/>
   <dimension ref="A1:G60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
@@ -6309,7 +6312,7 @@
         <v>7</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
@@ -6320,7 +6323,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -6357,7 +6360,7 @@
     <row r="5" ht="16.5" spans="1:5">
       <c r="A5" s="10"/>
       <c r="B5" s="11" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>19</v>
@@ -6366,7 +6369,7 @@
         <v>20</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" ht="16.5" spans="1:7">
@@ -6384,10 +6387,10 @@
         <v>25</v>
       </c>
       <c r="F6" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="G6" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="7" ht="16.5" spans="1:7">
@@ -6401,10 +6404,10 @@
       <c r="D7" s="13"/>
       <c r="E7" s="14"/>
       <c r="F7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="G7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="8" ht="16.5" spans="1:5">
@@ -6462,7 +6465,7 @@
     </row>
     <row r="13" spans="2:2">
       <c r="B13" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="14" spans="2:2">
@@ -6472,112 +6475,112 @@
     </row>
     <row r="15" spans="2:2">
       <c r="B15" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="29" spans="2:2">
       <c r="B29" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="30" spans="2:2">
       <c r="B30" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="36" spans="2:2">
       <c r="B36" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="37" spans="2:2">
@@ -6587,42 +6590,42 @@
     </row>
     <row r="38" spans="2:2">
       <c r="B38" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="39" spans="2:2">
       <c r="B39" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="40" spans="2:2">
       <c r="B40" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="41" spans="2:2">
       <c r="B41" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="42" spans="2:2">
       <c r="B42" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="43" spans="2:2">
       <c r="B43" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="44" spans="2:2">
       <c r="B44" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="45" spans="2:2">
       <c r="B45" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="46" spans="2:2">
@@ -6637,7 +6640,7 @@
     </row>
     <row r="48" spans="2:2">
       <c r="B48" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="49" spans="2:2">
@@ -6647,32 +6650,32 @@
     </row>
     <row r="50" spans="2:2">
       <c r="B50" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="51" spans="2:2">
       <c r="B51" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="52" spans="2:2">
       <c r="B52" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="53" spans="2:2">
       <c r="B53" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="54" spans="2:2">
       <c r="B54" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="55" spans="2:2">
       <c r="B55" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="56" spans="2:2">
@@ -6687,7 +6690,7 @@
     </row>
     <row r="58" spans="2:2">
       <c r="B58" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="59" spans="2:2">
@@ -6741,7 +6744,7 @@
         <v>7</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
@@ -6752,7 +6755,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -6789,7 +6792,7 @@
     <row r="5" ht="16.5" spans="1:5">
       <c r="A5" s="10"/>
       <c r="B5" s="11" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>19</v>
@@ -6798,7 +6801,7 @@
         <v>20</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" ht="16.5" spans="1:5">
@@ -6867,12 +6870,12 @@
     </row>
     <row r="12" spans="2:2">
       <c r="B12" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="14" spans="2:2">
@@ -6921,7 +6924,7 @@
         <v>7</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
@@ -6932,7 +6935,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -6969,7 +6972,7 @@
     <row r="5" ht="16.5" spans="1:5">
       <c r="A5" s="10"/>
       <c r="B5" s="11" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>19</v>
@@ -6978,7 +6981,7 @@
         <v>20</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" ht="16.5" spans="1:5">
@@ -7047,12 +7050,12 @@
     </row>
     <row r="12" spans="2:2">
       <c r="B12" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="14" spans="2:2">
